--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 5 (43, 19, 11, 17, 31)/Ableson 2 (26, 13, 27, 25, 16)/NCDE_32nodes_Uniform0.05Virtual_Nelson(43, 19, 11, 17, 31)_Ableson(26, 13, 27, 25, 16)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.7801941478120549</v>
+        <v>0.7802482871583417</v>
       </c>
       <c r="E2">
-        <v>0.7801941478120549</v>
+        <v>0.7802482871583417</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.001049846831607393</v>
+        <v>0.001049940954904919</v>
       </c>
       <c r="E3">
-        <v>0.001049846831607393</v>
+        <v>0.001049940954904919</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.9777709905775011</v>
+        <v>0.9777734594990203</v>
       </c>
       <c r="E4">
-        <v>0.9777709905775011</v>
+        <v>0.9777734594990203</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.01093265026897741</v>
+        <v>0.01093536936292306</v>
       </c>
       <c r="E5">
-        <v>0.01093265026897741</v>
+        <v>0.01093536936292306</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.03397231933833591</v>
+        <v>0.03397340952046381</v>
       </c>
       <c r="E6">
-        <v>0.03397231933833591</v>
+        <v>0.03397340952046381</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -523,13 +523,13 @@
         <v>11</v>
       </c>
       <c r="C7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.9968213091791032</v>
+        <v>5.623463638442182E-08</v>
       </c>
       <c r="E7">
-        <v>0.003178690820896835</v>
+        <v>0.9999999437653636</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9955523105941231</v>
+        <v>0.9637688694559144</v>
       </c>
       <c r="E8">
-        <v>0.00444768940587692</v>
+        <v>0.03623113054408555</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9971488598689794</v>
+        <v>0.9988029460566047</v>
       </c>
       <c r="E9">
-        <v>0.002851140131020613</v>
+        <v>0.00119705394339531</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>0.9971357465765202</v>
+        <v>0.9999999999999898</v>
       </c>
       <c r="E10">
-        <v>0.002864253423479846</v>
+        <v>1.021405182655144E-14</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -582,16 +582,16 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>0.9961020881471732</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0.003897911852826841</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0.5385243892669678</v>
+        <v>2.210016965866089</v>
       </c>
       <c r="G11">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8731486697762664</v>
+        <v>0.8725486169791038</v>
       </c>
       <c r="E12">
-        <v>0.8731486697762664</v>
+        <v>0.8725486169791038</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>4.425896065398074E-05</v>
+        <v>4.446600054844531E-05</v>
       </c>
       <c r="E13">
-        <v>4.425896065398074E-05</v>
+        <v>4.446600054844531E-05</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.9981038850407079</v>
+        <v>0.9981208434872104</v>
       </c>
       <c r="E14">
-        <v>0.9981038850407079</v>
+        <v>0.9981208434872104</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>0.001283112664782257</v>
+        <v>0.001274778392332569</v>
       </c>
       <c r="E15">
-        <v>0.001283112664782257</v>
+        <v>0.001274778392332569</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.001202111235414594</v>
+        <v>0.001195605405809055</v>
       </c>
       <c r="E16">
-        <v>0.001202111235414594</v>
+        <v>0.001195605405809055</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -672,13 +672,13 @@
         <v>11</v>
       </c>
       <c r="C17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>0.9999598049969921</v>
+        <v>2.083123296401172E-10</v>
       </c>
       <c r="E17">
-        <v>4.019500300789236E-05</v>
+        <v>0.9999999997916876</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0.9999265196431443</v>
+        <v>0.9986571132112863</v>
       </c>
       <c r="E18">
-        <v>7.348035685572629E-05</v>
+        <v>0.001342886788713749</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>0.9999667387052831</v>
+        <v>0.9999807585965348</v>
       </c>
       <c r="E19">
-        <v>3.326129471692418E-05</v>
+        <v>1.924140346520886E-05</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -717,10 +717,10 @@
         <v>1</v>
       </c>
       <c r="D20">
-        <v>0.9999663426909354</v>
+        <v>1</v>
       </c>
       <c r="E20">
-        <v>3.365730906457198E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9999416279562959</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>5.837204370406912E-05</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8335458040237427</v>
+        <v>3.063281536102295</v>
       </c>
       <c r="G21">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
